--- a/data/outputs/management_elsevier/73.xlsx
+++ b/data/outputs/management_elsevier/73.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS82"/>
+  <dimension ref="A1:BU82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -933,6 +943,12 @@
           <t>2-s2.0-84958851970</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>1031</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1142,6 +1158,12 @@
           <t>2-s2.0-84958846141</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>615</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1351,6 +1373,12 @@
           <t>2-s2.0-84958874302</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>556</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1572,6 +1600,12 @@
           <t>2-s2.0-84958934172</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>702</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1785,6 +1819,12 @@
           <t>2-s2.0-84958936427</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>1222</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1998,6 +2038,12 @@
           <t>2-s2.0-84947494900</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>1127</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2214,6 +2260,12 @@
         <is>
           <t>2-s2.0-84947494164</t>
         </is>
+      </c>
+      <c r="BT8" t="n">
+        <v>658</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -2423,6 +2475,12 @@
         <is>
           <t>2-s2.0-84947494777</t>
         </is>
+      </c>
+      <c r="BT9" t="n">
+        <v>1764</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -2617,6 +2675,12 @@
       <c r="BQ10" t="inlineStr"/>
       <c r="BR10" t="inlineStr"/>
       <c r="BS10" t="inlineStr"/>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2828,6 +2892,12 @@
           <t>2-s2.0-84947287273</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>1535</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3041,6 +3111,12 @@
           <t>2-s2.0-84947495804</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>699</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3265,6 +3341,12 @@
         <is>
           <t>2-s2.0-84947126928</t>
         </is>
+      </c>
+      <c r="BT13" t="n">
+        <v>670</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -3475,6 +3557,12 @@
           <t>2-s2.0-84947261453</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>2955</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3690,6 +3778,12 @@
           <t>2-s2.0-84948714219</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>8752</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3901,6 +3995,12 @@
           <t>2-s2.0-84948712822</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>8708</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4124,6 +4224,12 @@
           <t>2-s2.0-84948716401</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>9416</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4347,6 +4453,12 @@
           <t>2-s2.0-84948675154</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>1909</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4577,6 +4689,12 @@
         <is>
           <t>2-s2.0-84948719407</t>
         </is>
+      </c>
+      <c r="BT19" t="n">
+        <v>2847</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -4781,6 +4899,12 @@
           <t>2-s2.0-84948713345</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>2148</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4984,6 +5108,12 @@
           <t>2-s2.0-84948661070</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>16167</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5191,6 +5321,12 @@
           <t>2-s2.0-84942552386</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>493</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5412,6 +5548,12 @@
           <t>2-s2.0-84942524919</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>5011</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5638,6 +5780,12 @@
         <is>
           <t>2-s2.0-84942551151</t>
         </is>
+      </c>
+      <c r="BT24" t="n">
+        <v>1330</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -5848,6 +5996,12 @@
           <t>2-s2.0-84942522821</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>4574</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6061,6 +6215,12 @@
           <t>2-s2.0-84942550128</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>1620</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6274,6 +6434,12 @@
           <t>2-s2.0-84942816152</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>4912</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6493,6 +6659,12 @@
           <t>2-s2.0-84942552281</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>1870</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6721,6 +6893,12 @@
         <is>
           <t>2-s2.0-84942829063</t>
         </is>
+      </c>
+      <c r="BT29" t="n">
+        <v>2218</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="30">
@@ -6937,6 +7115,12 @@
           <t>2-s2.0-84942838932</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>1029</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7162,6 +7346,12 @@
           <t>2-s2.0-84940789616</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>3922</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7386,6 +7576,12 @@
         <is>
           <t>2-s2.0-85028134205</t>
         </is>
+      </c>
+      <c r="BT32" t="n">
+        <v>1141</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="33">
@@ -7596,6 +7792,12 @@
           <t>2-s2.0-84940725539</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>1016</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7813,6 +8015,12 @@
           <t>2-s2.0-84940718615</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>410</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8031,6 +8239,12 @@
         <is>
           <t>2-s2.0-84940747119</t>
         </is>
+      </c>
+      <c r="BT35" t="n">
+        <v>843</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="36">
@@ -8225,6 +8439,12 @@
       <c r="BQ36" t="inlineStr"/>
       <c r="BR36" t="inlineStr"/>
       <c r="BS36" t="inlineStr"/>
+      <c r="BT36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8445,6 +8665,12 @@
         <is>
           <t>2-s2.0-84940719384</t>
         </is>
+      </c>
+      <c r="BT37" t="n">
+        <v>1864</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="38">
@@ -8651,6 +8877,12 @@
           <t>2-s2.0-84929833190</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>413</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8874,6 +9106,12 @@
           <t>2-s2.0-84947269034</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>1624</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9099,6 +9337,12 @@
           <t>2-s2.0-84930918665</t>
         </is>
       </c>
+      <c r="BT40" t="n">
+        <v>657</v>
+      </c>
+      <c r="BU40" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9328,6 +9572,12 @@
           <t>2-s2.0-84924116440</t>
         </is>
       </c>
+      <c r="BT41" t="n">
+        <v>1148</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9560,6 +9810,12 @@
         <is>
           <t>2-s2.0-84924891418</t>
         </is>
+      </c>
+      <c r="BT42" t="n">
+        <v>3665</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -9758,6 +10014,12 @@
       <c r="BQ43" t="inlineStr"/>
       <c r="BR43" t="inlineStr"/>
       <c r="BS43" t="inlineStr"/>
+      <c r="BT43" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9983,6 +10245,12 @@
           <t>2-s2.0-84929590955</t>
         </is>
       </c>
+      <c r="BT44" t="n">
+        <v>1784</v>
+      </c>
+      <c r="BU44" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -10223,6 +10491,12 @@
         <is>
           <t>2-s2.0-84928911650</t>
         </is>
+      </c>
+      <c r="BT45" t="n">
+        <v>2715</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="46">
@@ -10437,6 +10711,12 @@
           <t>2-s2.0-84930181976</t>
         </is>
       </c>
+      <c r="BT46" t="n">
+        <v>1565</v>
+      </c>
+      <c r="BU46" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10653,6 +10933,12 @@
         <is>
           <t>2-s2.0-84930182953</t>
         </is>
+      </c>
+      <c r="BT47" t="n">
+        <v>774</v>
+      </c>
+      <c r="BU47" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="48">
@@ -10862,6 +11148,12 @@
         <is>
           <t>2-s2.0-84930181161</t>
         </is>
+      </c>
+      <c r="BT48" t="n">
+        <v>637</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="49">
@@ -11056,6 +11348,12 @@
       <c r="BQ49" t="inlineStr"/>
       <c r="BR49" t="inlineStr"/>
       <c r="BS49" t="inlineStr"/>
+      <c r="BT49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11249,6 +11547,12 @@
       <c r="BQ50" t="inlineStr"/>
       <c r="BR50" t="inlineStr"/>
       <c r="BS50" t="inlineStr"/>
+      <c r="BT50" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11467,6 +11771,12 @@
         <is>
           <t>2-s2.0-84930183194</t>
         </is>
+      </c>
+      <c r="BT51" t="n">
+        <v>2178</v>
+      </c>
+      <c r="BU51" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="52">
@@ -11677,6 +11987,12 @@
           <t>2-s2.0-84940000185</t>
         </is>
       </c>
+      <c r="BT52" t="n">
+        <v>944</v>
+      </c>
+      <c r="BU52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11896,6 +12212,12 @@
           <t>2-s2.0-84926277577</t>
         </is>
       </c>
+      <c r="BT53" t="n">
+        <v>14757</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -12130,6 +12452,12 @@
         <is>
           <t>2-s2.0-84926278524</t>
         </is>
+      </c>
+      <c r="BT54" t="n">
+        <v>3384</v>
+      </c>
+      <c r="BU54" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="55">
@@ -12346,6 +12674,12 @@
           <t>2-s2.0-84939972321</t>
         </is>
       </c>
+      <c r="BT55" t="n">
+        <v>954</v>
+      </c>
+      <c r="BU55" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12559,6 +12893,12 @@
           <t>2-s2.0-84939886012</t>
         </is>
       </c>
+      <c r="BT56" t="n">
+        <v>1125</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12778,6 +13118,12 @@
           <t>2-s2.0-84939973160</t>
         </is>
       </c>
+      <c r="BT57" t="n">
+        <v>1702</v>
+      </c>
+      <c r="BU57" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -13005,6 +13351,12 @@
           <t>2-s2.0-84939938895</t>
         </is>
       </c>
+      <c r="BT58" t="n">
+        <v>1235</v>
+      </c>
+      <c r="BU58" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13227,6 +13579,12 @@
         <is>
           <t>2-s2.0-84939970580</t>
         </is>
+      </c>
+      <c r="BT59" t="n">
+        <v>1869</v>
+      </c>
+      <c r="BU59" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="60">
@@ -13442,6 +13800,12 @@
         <is>
           <t>2-s2.0-84926277904</t>
         </is>
+      </c>
+      <c r="BT60" t="n">
+        <v>868</v>
+      </c>
+      <c r="BU60" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -13644,6 +14008,12 @@
           <t>2-s2.0-84939896094</t>
         </is>
       </c>
+      <c r="BT61" t="n">
+        <v>591</v>
+      </c>
+      <c r="BU61" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13863,6 +14233,12 @@
           <t>2-s2.0-84927804562</t>
         </is>
       </c>
+      <c r="BT62" t="n">
+        <v>7066</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -14079,6 +14455,12 @@
         <is>
           <t>2-s2.0-84926279377</t>
         </is>
+      </c>
+      <c r="BT63" t="n">
+        <v>2923</v>
+      </c>
+      <c r="BU63" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="64">
@@ -14293,6 +14675,12 @@
           <t>2-s2.0-84939893281</t>
         </is>
       </c>
+      <c r="BT64" t="n">
+        <v>1468</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -14524,6 +14912,12 @@
           <t>2-s2.0-84940005379</t>
         </is>
       </c>
+      <c r="BT65" t="n">
+        <v>2529</v>
+      </c>
+      <c r="BU65" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14751,6 +15145,12 @@
           <t>2-s2.0-84939940726</t>
         </is>
       </c>
+      <c r="BT66" t="n">
+        <v>6210</v>
+      </c>
+      <c r="BU66" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14972,6 +15372,12 @@
           <t>2-s2.0-84939979712</t>
         </is>
       </c>
+      <c r="BT67" t="n">
+        <v>1896</v>
+      </c>
+      <c r="BU67" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -15196,6 +15602,12 @@
         <is>
           <t>2-s2.0-84926336417</t>
         </is>
+      </c>
+      <c r="BT68" t="n">
+        <v>1195</v>
+      </c>
+      <c r="BU68" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="69">
@@ -15406,6 +15818,12 @@
           <t>2-s2.0-85027919577</t>
         </is>
       </c>
+      <c r="BT69" t="n">
+        <v>1068</v>
+      </c>
+      <c r="BU69" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15621,6 +16039,12 @@
           <t>2-s2.0-85027949666</t>
         </is>
       </c>
+      <c r="BT70" t="n">
+        <v>691</v>
+      </c>
+      <c r="BU70" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15834,6 +16258,12 @@
           <t>2-s2.0-85027917438</t>
         </is>
       </c>
+      <c r="BT71" t="n">
+        <v>909</v>
+      </c>
+      <c r="BU71" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -16052,6 +16482,12 @@
         <is>
           <t>2-s2.0-85027955111</t>
         </is>
+      </c>
+      <c r="BT72" t="n">
+        <v>898</v>
+      </c>
+      <c r="BU72" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="73">
@@ -16234,6 +16670,12 @@
       <c r="BQ73" t="inlineStr"/>
       <c r="BR73" t="inlineStr"/>
       <c r="BS73" t="inlineStr"/>
+      <c r="BT73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -16427,6 +16869,12 @@
       <c r="BQ74" t="inlineStr"/>
       <c r="BR74" t="inlineStr"/>
       <c r="BS74" t="inlineStr"/>
+      <c r="BT74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -16649,6 +17097,12 @@
         <is>
           <t>2-s2.0-84924082582</t>
         </is>
+      </c>
+      <c r="BT75" t="n">
+        <v>1478</v>
+      </c>
+      <c r="BU75" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="76">
@@ -16859,6 +17313,12 @@
           <t>2-s2.0-85027956032</t>
         </is>
       </c>
+      <c r="BT76" t="n">
+        <v>1051</v>
+      </c>
+      <c r="BU76" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -17068,6 +17528,12 @@
           <t>2-s2.0-85027954139</t>
         </is>
       </c>
+      <c r="BT77" t="n">
+        <v>1104</v>
+      </c>
+      <c r="BU77" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -17281,6 +17747,12 @@
           <t>2-s2.0-85027944060</t>
         </is>
       </c>
+      <c r="BT78" t="n">
+        <v>1823</v>
+      </c>
+      <c r="BU78" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -17505,6 +17977,12 @@
         <is>
           <t>2-s2.0-85027957840</t>
         </is>
+      </c>
+      <c r="BT79" t="n">
+        <v>728</v>
+      </c>
+      <c r="BU79" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="80">
@@ -17714,6 +18192,12 @@
         <is>
           <t>2-s2.0-85027941440</t>
         </is>
+      </c>
+      <c r="BT80" t="n">
+        <v>685</v>
+      </c>
+      <c r="BU80" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="81">
@@ -17908,6 +18392,12 @@
       <c r="BQ81" t="inlineStr"/>
       <c r="BR81" t="inlineStr"/>
       <c r="BS81" t="inlineStr"/>
+      <c r="BT81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -18101,6 +18591,12 @@
       <c r="BQ82" t="inlineStr"/>
       <c r="BR82" t="inlineStr"/>
       <c r="BS82" t="inlineStr"/>
+      <c r="BT82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU82" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
